--- a/grafy/vekova-skladba.xlsx
+++ b/grafy/vekova-skladba.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Věk</t>
   </si>
@@ -678,23 +678,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="139901184"/>
-        <c:axId val="139914240"/>
+        <c:axId val="76925952"/>
+        <c:axId val="55079680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139901184"/>
+        <c:axId val="76925952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139914240"/>
+        <c:crossAx val="55079680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139914240"/>
+        <c:axId val="55079680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +702,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139901184"/>
+        <c:crossAx val="76925952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -715,7 +715,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -864,23 +864,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151234816"/>
-        <c:axId val="151347200"/>
+        <c:axId val="55119872"/>
+        <c:axId val="55121408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151234816"/>
+        <c:axId val="55119872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151347200"/>
+        <c:crossAx val="55121408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151347200"/>
+        <c:axId val="55121408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +888,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151234816"/>
+        <c:crossAx val="55119872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -901,7 +901,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1082,23 +1082,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151550976"/>
-        <c:axId val="151557248"/>
+        <c:axId val="55154560"/>
+        <c:axId val="55156096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151550976"/>
+        <c:axId val="55154560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151557248"/>
+        <c:crossAx val="55156096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151557248"/>
+        <c:axId val="55156096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1106,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151550976"/>
+        <c:crossAx val="55154560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1452,23 +1452,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="152284160"/>
-        <c:axId val="152336256"/>
+        <c:axId val="113566848"/>
+        <c:axId val="113568384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152284160"/>
+        <c:axId val="113566848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152336256"/>
+        <c:crossAx val="113568384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152336256"/>
+        <c:axId val="113568384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1476,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152284160"/>
+        <c:crossAx val="113566848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1512,133 +1512,128 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>FYKOS!$C$9:$C$27</c:f>
+              <c:f>FYKOS!$J$9:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>35431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36892</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>37257</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>37622</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>37987</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>38353</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>38718</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>39083</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>39448</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>39814</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>40179</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>40544</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>40909</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>41275</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>41640</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36892</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36526</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>36161</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35796</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FYKOS!$F$9:$F$27</c:f>
+              <c:f>FYKOS!$K$9:$K$27</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>174</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,11 +1653,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>Zprac!$A$5:$A$34</c:f>
@@ -1862,11 +1852,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="154890624"/>
-        <c:axId val="154892160"/>
+        <c:axId val="117705344"/>
+        <c:axId val="117727616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154890624"/>
+        <c:axId val="117705344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41800"/>
@@ -1885,13 +1875,13 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154892160"/>
+        <c:crossAx val="117727616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1461"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154892160"/>
+        <c:axId val="117727616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1899,7 +1889,7 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1911,7 +1901,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154890624"/>
+        <c:crossAx val="117705344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1934,7 +1924,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0" l="0" r="0" t="0" header="0.31496062992126006" footer="0.31496062992126006"/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0.31496062992126017" footer="0.31496062992126017"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1996,16 +1986,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4337,7 +4327,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4590,6 +4580,18 @@
       <c r="G8" t="s">
         <v>23</v>
       </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
@@ -4615,6 +4617,18 @@
         <f t="shared" ref="G9:G26" si="0">(F9)*5000</f>
         <v>665000</v>
       </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>35431</v>
+      </c>
+      <c r="K9">
+        <v>204</v>
+      </c>
+      <c r="L9">
+        <v>1020000</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
@@ -4640,6 +4654,18 @@
         <f t="shared" si="0"/>
         <v>535000</v>
       </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1">
+        <v>35796</v>
+      </c>
+      <c r="K10">
+        <v>132</v>
+      </c>
+      <c r="L10">
+        <v>660000</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
@@ -4665,6 +4691,18 @@
         <f t="shared" si="0"/>
         <v>605000</v>
       </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1">
+        <v>36161</v>
+      </c>
+      <c r="K11">
+        <v>166</v>
+      </c>
+      <c r="L11">
+        <v>830000</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
@@ -4690,6 +4728,18 @@
         <f t="shared" si="0"/>
         <v>630000</v>
       </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1">
+        <v>36526</v>
+      </c>
+      <c r="K12">
+        <v>187</v>
+      </c>
+      <c r="L12">
+        <v>935000</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
@@ -4715,6 +4765,18 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
+      <c r="I13">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1">
+        <v>36892</v>
+      </c>
+      <c r="K13">
+        <v>151</v>
+      </c>
+      <c r="L13">
+        <v>755000</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
@@ -4740,6 +4802,18 @@
         <f t="shared" si="0"/>
         <v>345000</v>
       </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>37257</v>
+      </c>
+      <c r="K14">
+        <v>133</v>
+      </c>
+      <c r="L14">
+        <v>665000</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
@@ -4765,6 +4839,18 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1">
+        <v>37622</v>
+      </c>
+      <c r="K15">
+        <v>107</v>
+      </c>
+      <c r="L15">
+        <v>535000</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
@@ -4790,8 +4876,20 @@
         <f t="shared" si="0"/>
         <v>340000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1">
+        <v>37987</v>
+      </c>
+      <c r="K16">
+        <v>121</v>
+      </c>
+      <c r="L16">
+        <v>605000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>23</v>
       </c>
@@ -4815,8 +4913,20 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1">
+        <v>38353</v>
+      </c>
+      <c r="K17">
+        <v>126</v>
+      </c>
+      <c r="L17">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>24</v>
       </c>
@@ -4840,8 +4950,20 @@
         <f t="shared" si="0"/>
         <v>315000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1">
+        <v>38718</v>
+      </c>
+      <c r="K18">
+        <v>110</v>
+      </c>
+      <c r="L18">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>25</v>
       </c>
@@ -4865,8 +4987,20 @@
         <f t="shared" si="0"/>
         <v>640000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1">
+        <v>39083</v>
+      </c>
+      <c r="K19">
+        <v>69</v>
+      </c>
+      <c r="L19">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>26</v>
       </c>
@@ -4890,8 +5024,20 @@
         <f t="shared" si="0"/>
         <v>870000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1">
+        <v>39448</v>
+      </c>
+      <c r="K20">
+        <v>76</v>
+      </c>
+      <c r="L20">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>27</v>
       </c>
@@ -4912,8 +5058,20 @@
         <f t="shared" si="0"/>
         <v>1015000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>22</v>
+      </c>
+      <c r="J21" s="1">
+        <v>39814</v>
+      </c>
+      <c r="K21">
+        <v>68</v>
+      </c>
+      <c r="L21">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>14</v>
       </c>
@@ -4927,8 +5085,20 @@
         <f>(F22)*5000</f>
         <v>755000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1">
+        <v>40179</v>
+      </c>
+      <c r="K22">
+        <v>60</v>
+      </c>
+      <c r="L22">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>13</v>
       </c>
@@ -4942,8 +5112,20 @@
         <f t="shared" si="0"/>
         <v>935000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>24</v>
+      </c>
+      <c r="J23" s="1">
+        <v>40544</v>
+      </c>
+      <c r="K23">
+        <v>63</v>
+      </c>
+      <c r="L23">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>12</v>
       </c>
@@ -4957,8 +5139,20 @@
         <f t="shared" si="0"/>
         <v>830000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1">
+        <v>40909</v>
+      </c>
+      <c r="K24">
+        <v>128</v>
+      </c>
+      <c r="L24">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>11</v>
       </c>
@@ -4972,8 +5166,20 @@
         <f t="shared" si="0"/>
         <v>660000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25">
+        <v>26</v>
+      </c>
+      <c r="J25" s="1">
+        <v>41275</v>
+      </c>
+      <c r="K25">
+        <v>174</v>
+      </c>
+      <c r="L25">
+        <v>870000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>10</v>
       </c>
@@ -4987,8 +5193,20 @@
         <f t="shared" si="0"/>
         <v>1020000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26">
+        <v>27</v>
+      </c>
+      <c r="J26" s="1">
+        <v>41640</v>
+      </c>
+      <c r="K26">
+        <v>203</v>
+      </c>
+      <c r="L26">
+        <v>1015000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="C27" s="1"/>
       <c r="F27" s="14"/>
     </row>
@@ -5002,8 +5220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
